--- a/main/Output/task_4.xlsx
+++ b/main/Output/task_4.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
+    <t>Dept No</t>
+  </si>
+  <si>
     <t>Dept Name</t>
-  </si>
-  <si>
-    <t>Dept No</t>
   </si>
   <si>
     <t>Total_Compensation</t>
@@ -407,36 +407,36 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
       <c r="C2">
-        <v>4311950</v>
+        <v>4299600</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
       </c>
       <c r="C3">
         <v>5002130</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" t="s">
+      <c r="A4">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
       <c r="C4">
-        <v>4645300</v>
+        <v>4657650</v>
       </c>
     </row>
   </sheetData>
